--- a/PointsTiming/القرية الذكية/Daily/يوم 28-5-2025.xlsx
+++ b/PointsTiming/القرية الذكية/Daily/يوم 28-5-2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7510" tabRatio="926" firstSheet="10" activeTab="18"/>
+    <workbookView windowWidth="19200" windowHeight="7510" tabRatio="926"/>
   </bookViews>
   <sheets>
     <sheet name="18- الواحات" sheetId="4" r:id="rId1"/>
@@ -2338,7 +2338,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2500,20 +2500,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="5" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2579,10 +2572,6 @@
     <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2680,9 +2669,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3033,8 +3019,8 @@
   <sheetPr/>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -3053,39 +3039,39 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.5" spans="1:7">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
     </row>
     <row r="2" ht="18.5" spans="1:7">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
     </row>
     <row r="3" ht="15.5" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="133" t="s">
+      <c r="B3" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="134"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
     </row>
     <row r="4" ht="15.5" spans="1:7">
       <c r="A4" s="3"/>
@@ -3141,7 +3127,7 @@
       <c r="G6" s="17"/>
     </row>
     <row r="7" ht="15.5" hidden="1" spans="1:7">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="90" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="17"/>
@@ -3216,12 +3202,12 @@
         <v>19</v>
       </c>
       <c r="B13" s="11"/>
-      <c r="C13" s="65"/>
+      <c r="C13" s="63"/>
       <c r="D13" s="7">
         <v>0.354166666666667</v>
       </c>
       <c r="E13" s="11"/>
-      <c r="F13" s="129">
+      <c r="F13" s="123">
         <v>0.364583333333333</v>
       </c>
       <c r="G13" s="11"/>
@@ -3405,7 +3391,9 @@
       </c>
       <c r="B28" s="11"/>
       <c r="C28" s="17"/>
-      <c r="E28" s="11"/>
+      <c r="E28" s="11">
+        <v>0.819444444444444</v>
+      </c>
       <c r="G28" s="57"/>
     </row>
     <row r="29" ht="15.5" spans="1:7">
@@ -3453,7 +3441,7 @@
       <c r="G32" s="11"/>
     </row>
     <row r="33" ht="15.5" spans="1:7">
-      <c r="A33" s="95"/>
+      <c r="A33" s="90"/>
       <c r="B33" s="11"/>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
@@ -3489,7 +3477,7 @@
       <c r="G36" s="17"/>
     </row>
     <row r="37" ht="15.5" spans="1:7">
-      <c r="A37" s="95"/>
+      <c r="A37" s="90"/>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
@@ -4372,8 +4360,8 @@
       <c r="C16" s="11"/>
       <c r="D16" s="60"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
     </row>
     <row r="17" s="54" customFormat="1" ht="15.5" spans="1:7">
       <c r="A17" s="6" t="s">
@@ -4480,7 +4468,7 @@
       <c r="B25" s="7">
         <v>0.694444444444444</v>
       </c>
-      <c r="C25" s="62">
+      <c r="C25" s="61">
         <v>0.701388888888889</v>
       </c>
       <c r="D25" s="17">
@@ -4495,7 +4483,7 @@
         <v>123</v>
       </c>
       <c r="B26" s="11"/>
-      <c r="C26" s="62"/>
+      <c r="C26" s="61"/>
       <c r="D26" s="11"/>
       <c r="E26" s="17"/>
       <c r="F26" s="11"/>
@@ -4506,7 +4494,7 @@
         <v>29</v>
       </c>
       <c r="B27" s="11"/>
-      <c r="C27" s="62">
+      <c r="C27" s="61">
         <v>0.784722222222222</v>
       </c>
       <c r="D27" s="11"/>
@@ -6989,7 +6977,7 @@
   <sheetPr/>
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1:E29"/>
@@ -7528,7 +7516,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="H6" s="13"/>
-      <c r="I6" s="118"/>
+      <c r="I6" s="113"/>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
     </row>
@@ -7541,7 +7529,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="118"/>
+      <c r="I7" s="113"/>
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
       <c r="O7" s="1" t="s">
@@ -7561,7 +7549,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="13"/>
-      <c r="I8" s="128"/>
+      <c r="I8" s="122"/>
       <c r="J8" s="7"/>
       <c r="K8" s="8"/>
     </row>
@@ -7573,7 +7561,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="13"/>
-      <c r="I9" s="129"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="10"/>
       <c r="K9" s="11"/>
     </row>
@@ -7593,7 +7581,7 @@
       </c>
       <c r="G10" s="25"/>
       <c r="H10" s="13"/>
-      <c r="I10" s="129"/>
+      <c r="I10" s="123"/>
       <c r="J10" s="10"/>
       <c r="K10" s="11"/>
     </row>
@@ -7611,7 +7599,7 @@
         <v>0.291666666666667</v>
       </c>
       <c r="H11" s="13"/>
-      <c r="I11" s="128"/>
+      <c r="I11" s="122"/>
       <c r="J11" s="7"/>
       <c r="K11" s="8"/>
     </row>
@@ -7625,7 +7613,7 @@
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
       <c r="H12" s="13"/>
-      <c r="I12" s="128"/>
+      <c r="I12" s="122"/>
       <c r="J12" s="7"/>
       <c r="K12" s="8"/>
     </row>
@@ -7650,7 +7638,7 @@
       </c>
       <c r="G13" s="25"/>
       <c r="H13" s="13"/>
-      <c r="I13" s="128"/>
+      <c r="I13" s="122"/>
       <c r="J13" s="7"/>
       <c r="K13" s="8"/>
     </row>
@@ -7666,12 +7654,12 @@
         <v>0.333333333333334</v>
       </c>
       <c r="H14" s="13"/>
-      <c r="I14" s="128"/>
+      <c r="I14" s="122"/>
       <c r="J14" s="7"/>
       <c r="K14" s="8"/>
     </row>
     <row r="15" ht="18.75" customHeight="1" spans="1:11">
-      <c r="A15" s="126" t="s">
+      <c r="A15" s="120" t="s">
         <v>59</v>
       </c>
       <c r="B15" s="15">
@@ -7681,17 +7669,17 @@
         <v>0.361111111111111</v>
       </c>
       <c r="D15" s="15"/>
-      <c r="E15" s="116"/>
+      <c r="E15" s="111"/>
       <c r="F15" s="15">
         <v>0.371527777777778</v>
       </c>
       <c r="H15" s="13"/>
-      <c r="I15" s="129"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="10"/>
       <c r="K15" s="11"/>
     </row>
     <row r="16" ht="15.5" spans="1:11">
-      <c r="A16" s="126" t="s">
+      <c r="A16" s="120" t="s">
         <v>60</v>
       </c>
       <c r="B16" s="15"/>
@@ -7703,22 +7691,22 @@
         <v>0.375</v>
       </c>
       <c r="H16" s="15"/>
-      <c r="I16" s="129"/>
+      <c r="I16" s="123"/>
       <c r="J16" s="10"/>
       <c r="K16" s="11"/>
     </row>
     <row r="17" ht="15.5" spans="1:11">
-      <c r="A17" s="126" t="s">
+      <c r="A17" s="120" t="s">
         <v>61</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="13"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
-      <c r="F17" s="63"/>
+      <c r="F17" s="62"/>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
-      <c r="I17" s="129"/>
+      <c r="I17" s="123"/>
       <c r="J17" s="10"/>
       <c r="K17" s="11"/>
     </row>
@@ -7726,12 +7714,12 @@
       <c r="A18" s="24"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
-      <c r="D18" s="63"/>
+      <c r="D18" s="62"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
-      <c r="I18" s="128"/>
+      <c r="I18" s="122"/>
       <c r="J18" s="7"/>
       <c r="K18" s="8"/>
     </row>
@@ -7742,10 +7730,10 @@
       <c r="B19" s="13">
         <v>0.399305555555556</v>
       </c>
-      <c r="C19" s="63">
+      <c r="C19" s="62">
         <v>0.402777777777778</v>
       </c>
-      <c r="D19" s="63">
+      <c r="D19" s="62">
         <v>0.40625</v>
       </c>
       <c r="E19" s="13">
@@ -7755,7 +7743,7 @@
         <v>0.413194444444444</v>
       </c>
       <c r="H19" s="13"/>
-      <c r="I19" s="128"/>
+      <c r="I19" s="122"/>
       <c r="J19" s="7"/>
       <c r="K19" s="8"/>
     </row>
@@ -7764,7 +7752,7 @@
         <v>63</v>
       </c>
       <c r="B20" s="13"/>
-      <c r="C20" s="63"/>
+      <c r="C20" s="62"/>
       <c r="D20" s="25"/>
       <c r="E20" s="25"/>
       <c r="F20" s="25"/>
@@ -7774,7 +7762,7 @@
       <c r="H20" s="14">
         <v>0.402777777777778</v>
       </c>
-      <c r="I20" s="128"/>
+      <c r="I20" s="122"/>
       <c r="J20" s="7"/>
       <c r="K20" s="8"/>
       <c r="O20" t="s">
@@ -7791,8 +7779,8 @@
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="129"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="123"/>
       <c r="J21" s="10"/>
       <c r="K21" s="11"/>
     </row>
@@ -7805,7 +7793,7 @@
       <c r="F22" s="26"/>
       <c r="G22" s="13"/>
       <c r="H22" s="26"/>
-      <c r="I22" s="129"/>
+      <c r="I22" s="123"/>
       <c r="J22" s="10"/>
       <c r="K22" s="11"/>
     </row>
@@ -7813,13 +7801,13 @@
       <c r="A23" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="63">
+      <c r="B23" s="62">
         <v>0.440972222222222</v>
       </c>
-      <c r="C23" s="63">
+      <c r="C23" s="62">
         <v>0.444444444444444</v>
       </c>
-      <c r="D23" s="63">
+      <c r="D23" s="62">
         <v>0.447916666666667</v>
       </c>
       <c r="E23" s="13"/>
@@ -7827,7 +7815,7 @@
         <v>0.454861111111111</v>
       </c>
       <c r="H23" s="13"/>
-      <c r="I23" s="129"/>
+      <c r="I23" s="123"/>
       <c r="J23" s="10"/>
       <c r="K23" s="11"/>
     </row>
@@ -7835,16 +7823,16 @@
       <c r="A24" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="63"/>
-      <c r="C24" s="63"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="25"/>
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
       <c r="G24" s="15">
         <v>0.458333333333333</v>
       </c>
-      <c r="H24" s="63"/>
-      <c r="I24" s="129"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="123"/>
       <c r="J24" s="10"/>
       <c r="K24" s="11"/>
     </row>
@@ -7875,17 +7863,17 @@
         <v>69</v>
       </c>
       <c r="B27" s="15"/>
-      <c r="C27" s="63"/>
+      <c r="C27" s="62"/>
       <c r="D27" s="14"/>
       <c r="E27" s="15">
         <v>0.486111111111111</v>
       </c>
       <c r="F27" s="14"/>
-      <c r="G27" s="63">
+      <c r="G27" s="62">
         <v>0.993055555555556</v>
       </c>
       <c r="H27" s="13"/>
-      <c r="I27" s="118"/>
+      <c r="I27" s="113"/>
       <c r="J27" s="13"/>
       <c r="K27" s="13"/>
       <c r="O27" t="s">
@@ -7897,17 +7885,17 @@
         <v>71</v>
       </c>
       <c r="C28" s="26"/>
-      <c r="D28" s="63"/>
+      <c r="D28" s="62"/>
       <c r="E28" s="25"/>
       <c r="F28" s="14"/>
       <c r="G28" s="25"/>
       <c r="H28" s="13"/>
-      <c r="I28" s="118"/>
+      <c r="I28" s="113"/>
       <c r="J28" s="13"/>
       <c r="K28" s="13"/>
     </row>
     <row r="29" ht="15.5" spans="1:11">
-      <c r="A29" s="127" t="s">
+      <c r="A29" s="121" t="s">
         <v>72</v>
       </c>
       <c r="B29" s="15">
@@ -7922,12 +7910,12 @@
       </c>
       <c r="G29" s="25"/>
       <c r="H29" s="13"/>
-      <c r="I29" s="129"/>
+      <c r="I29" s="123"/>
       <c r="J29" s="10"/>
       <c r="K29" s="11"/>
     </row>
     <row r="30" ht="15.5" spans="1:11">
-      <c r="A30" s="127" t="s">
+      <c r="A30" s="121" t="s">
         <v>73</v>
       </c>
       <c r="B30" s="15"/>
@@ -7939,7 +7927,7 @@
         <v>0.534722222222222</v>
       </c>
       <c r="H30" s="13"/>
-      <c r="I30" s="129"/>
+      <c r="I30" s="123"/>
       <c r="J30" s="10"/>
       <c r="K30" s="11"/>
     </row>
@@ -7964,7 +7952,7 @@
         <v>0.576388888888889</v>
       </c>
       <c r="H31" s="13"/>
-      <c r="I31" s="128"/>
+      <c r="I31" s="122"/>
       <c r="J31" s="7"/>
       <c r="K31" s="8"/>
     </row>
@@ -7978,7 +7966,7 @@
       <c r="E32" s="13"/>
       <c r="G32" s="25"/>
       <c r="H32" s="13"/>
-      <c r="I32" s="128"/>
+      <c r="I32" s="122"/>
       <c r="J32" s="7"/>
       <c r="K32" s="8"/>
     </row>
@@ -8001,7 +7989,7 @@
         <v>0.618055555555556</v>
       </c>
       <c r="H33" s="13"/>
-      <c r="I33" s="129"/>
+      <c r="I33" s="123"/>
       <c r="J33" s="10"/>
       <c r="K33" s="11"/>
     </row>
@@ -8013,9 +8001,9 @@
       <c r="C34" s="25"/>
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
-      <c r="F34" s="65"/>
+      <c r="F34" s="63"/>
       <c r="H34" s="13"/>
-      <c r="I34" s="129"/>
+      <c r="I34" s="123"/>
       <c r="J34" s="10"/>
       <c r="K34" s="11"/>
     </row>
@@ -8029,12 +8017,12 @@
       <c r="C35" s="15">
         <v>0.645833333333333</v>
       </c>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
       <c r="F35" s="14"/>
-      <c r="G35" s="65"/>
+      <c r="G35" s="63"/>
       <c r="H35" s="13"/>
-      <c r="I35" s="128"/>
+      <c r="I35" s="122"/>
       <c r="J35" s="7"/>
       <c r="K35" s="8"/>
     </row>
@@ -8052,7 +8040,7 @@
       </c>
       <c r="F36" s="25"/>
       <c r="H36" s="13"/>
-      <c r="I36" s="128"/>
+      <c r="I36" s="122"/>
       <c r="J36" s="7"/>
       <c r="K36" s="8"/>
     </row>
@@ -8069,7 +8057,7 @@
         <v>0.659722222222222</v>
       </c>
       <c r="H37" s="13"/>
-      <c r="I37" s="128"/>
+      <c r="I37" s="122"/>
       <c r="J37" s="7"/>
       <c r="K37" s="8"/>
     </row>
@@ -8077,14 +8065,14 @@
       <c r="A38" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="B38" s="63"/>
-      <c r="C38" s="63"/>
-      <c r="D38" s="63"/>
-      <c r="E38" s="63"/>
-      <c r="F38" s="63"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="62"/>
       <c r="G38" s="15"/>
       <c r="H38" s="13"/>
-      <c r="I38" s="128"/>
+      <c r="I38" s="122"/>
       <c r="J38" s="7"/>
       <c r="K38" s="8"/>
     </row>
@@ -8092,20 +8080,20 @@
       <c r="A39" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="B39" s="63">
+      <c r="B39" s="62">
         <v>0.677083333333333</v>
       </c>
-      <c r="C39" s="63">
+      <c r="C39" s="62">
         <v>0.680555555555556</v>
       </c>
-      <c r="D39" s="63"/>
-      <c r="E39" s="63"/>
-      <c r="F39" s="63"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="62"/>
       <c r="G39" s="15">
         <v>0.694444444444444</v>
       </c>
       <c r="H39" s="13"/>
-      <c r="I39" s="128"/>
+      <c r="I39" s="122"/>
       <c r="J39" s="7"/>
       <c r="K39" s="8"/>
       <c r="O39" t="s">
@@ -8123,20 +8111,20 @@
       <c r="F40" s="25"/>
       <c r="G40" s="25"/>
       <c r="H40" s="13"/>
-      <c r="I40" s="129"/>
+      <c r="I40" s="123"/>
       <c r="J40" s="10"/>
       <c r="K40" s="11"/>
     </row>
     <row r="41" ht="15.5" spans="1:11">
-      <c r="A41" s="127"/>
+      <c r="A41" s="121"/>
       <c r="B41" s="15"/>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
       <c r="E41" s="15"/>
       <c r="F41" s="13"/>
-      <c r="G41" s="63"/>
+      <c r="G41" s="62"/>
       <c r="H41" s="13"/>
-      <c r="I41" s="129"/>
+      <c r="I41" s="123"/>
       <c r="J41" s="10"/>
       <c r="K41" s="11"/>
     </row>
@@ -8150,10 +8138,10 @@
         <v>0.725694444444445</v>
       </c>
       <c r="E42" s="15"/>
-      <c r="F42" s="63"/>
+      <c r="F42" s="62"/>
       <c r="G42" s="15"/>
       <c r="H42" s="13"/>
-      <c r="I42" s="128"/>
+      <c r="I42" s="122"/>
       <c r="J42" s="7"/>
       <c r="K42" s="8"/>
     </row>
@@ -8174,7 +8162,7 @@
         <v>0.777777777777778</v>
       </c>
       <c r="H43" s="13"/>
-      <c r="I43" s="129"/>
+      <c r="I43" s="123"/>
       <c r="J43" s="10"/>
       <c r="K43" s="11"/>
     </row>
@@ -8191,7 +8179,7 @@
       </c>
       <c r="G44" s="15"/>
       <c r="H44" s="13"/>
-      <c r="I44" s="128"/>
+      <c r="I44" s="122"/>
       <c r="J44" s="7"/>
       <c r="K44" s="8"/>
     </row>
@@ -8202,7 +8190,7 @@
       <c r="F45" s="26"/>
       <c r="G45" s="26"/>
       <c r="H45" s="13"/>
-      <c r="I45" s="128"/>
+      <c r="I45" s="122"/>
       <c r="J45" s="7"/>
       <c r="K45" s="8"/>
     </row>
@@ -8221,7 +8209,7 @@
         <v>0.861111111111111</v>
       </c>
       <c r="H46" s="13"/>
-      <c r="I46" s="129"/>
+      <c r="I46" s="123"/>
       <c r="J46" s="10"/>
       <c r="K46" s="11"/>
     </row>
@@ -8233,10 +8221,10 @@
       <c r="C47" s="26"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
-      <c r="F47" s="65"/>
-      <c r="G47" s="65"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="63"/>
       <c r="H47" s="13"/>
-      <c r="I47" s="129"/>
+      <c r="I47" s="123"/>
       <c r="J47" s="10"/>
       <c r="K47" s="11"/>
     </row>
@@ -8258,7 +8246,7 @@
         <v>0.899305555555556</v>
       </c>
       <c r="H48" s="13"/>
-      <c r="I48" s="129"/>
+      <c r="I48" s="123"/>
       <c r="J48" s="10"/>
       <c r="K48" s="11"/>
     </row>
@@ -8275,7 +8263,7 @@
         <v>0.902777777777778</v>
       </c>
       <c r="H49" s="13"/>
-      <c r="I49" s="128"/>
+      <c r="I49" s="122"/>
       <c r="J49" s="7"/>
       <c r="K49" s="8"/>
     </row>
@@ -9149,14 +9137,14 @@
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
     </row>
     <row r="2" ht="18.5" spans="1:9">
       <c r="A2" s="2" t="s">
@@ -9315,13 +9303,13 @@
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
-      <c r="I10" s="125"/>
+      <c r="I10" s="63"/>
     </row>
     <row r="11" ht="17.25" customHeight="1" spans="1:9">
       <c r="A11" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="B11" s="116">
+      <c r="B11" s="111">
         <v>0.322916666666667</v>
       </c>
       <c r="C11" s="14">
@@ -9346,7 +9334,7 @@
       <c r="D12" s="26"/>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
-      <c r="H12" s="122"/>
+      <c r="H12" s="117"/>
       <c r="I12" s="15"/>
     </row>
     <row r="13" ht="15.5" spans="1:9">
@@ -9382,10 +9370,10 @@
       <c r="F14" s="13"/>
       <c r="G14" s="26"/>
       <c r="H14" s="25"/>
-      <c r="I14" s="61"/>
+      <c r="I14" s="25"/>
     </row>
     <row r="15" ht="15.5" spans="1:9">
-      <c r="A15" s="123" t="s">
+      <c r="A15" s="118" t="s">
         <v>112</v>
       </c>
       <c r="B15" s="14">
@@ -9405,7 +9393,7 @@
       <c r="I15" s="15"/>
     </row>
     <row r="16" ht="15.5" spans="1:9">
-      <c r="A16" s="123" t="s">
+      <c r="A16" s="118" t="s">
         <v>113</v>
       </c>
       <c r="B16" s="13"/>
@@ -9418,7 +9406,7 @@
       <c r="I16" s="15"/>
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:9">
-      <c r="A17" s="123" t="s">
+      <c r="A17" s="118" t="s">
         <v>66</v>
       </c>
       <c r="B17" s="14">
@@ -9428,12 +9416,12 @@
       <c r="D17" s="26"/>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
-      <c r="G17" s="116"/>
+      <c r="G17" s="111"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
     <row r="18" ht="15" customHeight="1" spans="1:9">
-      <c r="A18" s="123"/>
+      <c r="A18" s="118"/>
       <c r="B18" s="15"/>
       <c r="C18" s="26"/>
       <c r="D18" s="26"/>
@@ -9467,7 +9455,7 @@
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
     </row>
-    <row r="21" s="121" customFormat="1" ht="16.5" customHeight="1" spans="1:9">
+    <row r="21" s="116" customFormat="1" ht="16.5" customHeight="1" spans="1:9">
       <c r="A21" s="24" t="s">
         <v>115</v>
       </c>
@@ -9500,8 +9488,8 @@
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
-      <c r="G22" s="61"/>
-      <c r="I22" s="61"/>
+      <c r="G22" s="25"/>
+      <c r="I22" s="25"/>
     </row>
     <row r="23" ht="15.5" spans="1:9">
       <c r="A23" s="24" t="s">
@@ -9581,9 +9569,9 @@
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
       <c r="F27" s="26"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
     </row>
     <row r="28" ht="17.1" customHeight="1" spans="1:9">
       <c r="A28" s="24" t="s">
@@ -9671,7 +9659,7 @@
       </c>
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
-      <c r="H33" s="124"/>
+      <c r="H33" s="119"/>
       <c r="I33" s="15"/>
     </row>
     <row r="34" ht="15.5" spans="1:9">
@@ -9701,9 +9689,9 @@
       <c r="E35" s="15">
         <v>0.909722222222222</v>
       </c>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
       <c r="I35" s="13"/>
     </row>
     <row r="36" ht="16.5" customHeight="1" spans="1:9">
@@ -9721,7 +9709,7 @@
       <c r="H36" s="14">
         <v>0.913194444444444</v>
       </c>
-      <c r="I36" s="65"/>
+      <c r="I36" s="63"/>
     </row>
     <row r="37" ht="16.5" customHeight="1" spans="1:9">
       <c r="A37" s="24"/>
@@ -9801,14 +9789,14 @@
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
     </row>
     <row r="2" ht="18.5" spans="1:9">
       <c r="A2" s="32" t="s">
@@ -10036,7 +10024,7 @@
       <c r="I14" s="13"/>
     </row>
     <row r="15" ht="15.5" spans="1:13">
-      <c r="A15" s="115" t="s">
+      <c r="A15" s="110" t="s">
         <v>148</v>
       </c>
       <c r="B15" s="14"/>
@@ -10048,7 +10036,7 @@
       <c r="G15" s="15">
         <v>0.364583333333333</v>
       </c>
-      <c r="H15" s="116">
+      <c r="H15" s="111">
         <v>0.368055555555556</v>
       </c>
       <c r="I15" s="15">
@@ -10059,7 +10047,7 @@
       </c>
     </row>
     <row r="16" ht="15.5" spans="1:13">
-      <c r="A16" s="115" t="s">
+      <c r="A16" s="110" t="s">
         <v>150</v>
       </c>
       <c r="B16" s="15"/>
@@ -10075,7 +10063,7 @@
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1" spans="1:13">
-      <c r="A17" s="115" t="s">
+      <c r="A17" s="110" t="s">
         <v>152</v>
       </c>
       <c r="C17" s="15">
@@ -10190,8 +10178,8 @@
         <v>22</v>
       </c>
       <c r="B24" s="15"/>
-      <c r="C24" s="116"/>
-      <c r="D24" s="117"/>
+      <c r="C24" s="111"/>
+      <c r="D24" s="112"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
       <c r="G24" s="14">
@@ -10265,7 +10253,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="25"/>
-      <c r="C29" s="118"/>
+      <c r="C29" s="113"/>
       <c r="D29" s="14">
         <v>0.604166666666667</v>
       </c>
@@ -10288,8 +10276,8 @@
       <c r="G30" s="14">
         <v>0.649305555555556</v>
       </c>
-      <c r="H30" s="61"/>
-      <c r="I30" s="61"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
     </row>
     <row r="31" ht="15.5" spans="1:9">
       <c r="A31" s="6" t="s">
@@ -10331,11 +10319,11 @@
       <c r="D33" s="14">
         <v>0.684027777777778</v>
       </c>
-      <c r="E33" s="119"/>
-      <c r="F33" s="119">
+      <c r="E33" s="114"/>
+      <c r="F33" s="114">
         <v>0.6875</v>
       </c>
-      <c r="G33" s="119">
+      <c r="G33" s="114">
         <v>0.690972222222222</v>
       </c>
       <c r="H33" s="14">
@@ -10362,7 +10350,7 @@
       </c>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
-      <c r="D35" s="116"/>
+      <c r="D35" s="111"/>
       <c r="E35" s="14"/>
       <c r="F35" s="26"/>
       <c r="G35" s="14">
@@ -10401,7 +10389,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="14"/>
-      <c r="C38" s="116"/>
+      <c r="C38" s="111"/>
       <c r="D38" s="14">
         <v>0.812499999999999</v>
       </c>
@@ -10480,7 +10468,7 @@
       <c r="I45" s="17"/>
     </row>
     <row r="46" ht="15.75" hidden="1" customHeight="1" spans="1:9">
-      <c r="A46" s="120" t="s">
+      <c r="A46" s="115" t="s">
         <v>127</v>
       </c>
       <c r="B46" s="17"/>
@@ -10600,71 +10588,71 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="96" t="s">
+      <c r="B3" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="97"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="111" t="s">
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="93"/>
+      <c r="Q3" s="106" t="s">
         <v>164</v>
       </c>
-      <c r="R3" s="111" t="s">
+      <c r="R3" s="106" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:18">
       <c r="A4" s="3"/>
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="91" t="s">
         <v>166</v>
       </c>
-      <c r="C4" s="97" t="s">
+      <c r="C4" s="92" t="s">
         <v>167</v>
       </c>
-      <c r="D4" s="97" t="s">
+      <c r="D4" s="92" t="s">
         <v>168</v>
       </c>
-      <c r="E4" s="98" t="s">
+      <c r="E4" s="93" t="s">
         <v>169</v>
       </c>
-      <c r="F4" s="99" t="s">
+      <c r="F4" s="94" t="s">
         <v>170</v>
       </c>
-      <c r="G4" s="99" t="s">
+      <c r="G4" s="94" t="s">
         <v>171</v>
       </c>
-      <c r="H4" s="99" t="s">
+      <c r="H4" s="94" t="s">
         <v>172</v>
       </c>
-      <c r="I4" s="99" t="s">
+      <c r="I4" s="94" t="s">
         <v>173</v>
       </c>
-      <c r="J4" s="96" t="s">
+      <c r="J4" s="91" t="s">
         <v>174</v>
       </c>
-      <c r="K4" s="96" t="s">
+      <c r="K4" s="91" t="s">
         <v>175</v>
       </c>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="97"/>
-      <c r="O4" s="98"/>
-      <c r="P4" s="99" t="s">
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="93"/>
+      <c r="P4" s="94" t="s">
         <v>176</v>
       </c>
-      <c r="Q4" s="111"/>
-      <c r="R4" s="111"/>
+      <c r="Q4" s="106"/>
+      <c r="R4" s="106"/>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:18">
       <c r="A5" s="3"/>
@@ -10713,18 +10701,18 @@
       <c r="P5" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="Q5" s="111"/>
-      <c r="R5" s="111"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="106"/>
     </row>
     <row r="6" ht="15.5" spans="1:18">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="95" t="s">
         <v>52</v>
       </c>
       <c r="B6" s="51"/>
       <c r="C6" s="51"/>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
-      <c r="F6" s="101"/>
+      <c r="F6" s="96"/>
       <c r="G6" s="51"/>
       <c r="H6" s="51"/>
       <c r="I6" s="28"/>
@@ -10736,11 +10724,11 @@
       <c r="M6" s="51"/>
       <c r="N6" s="51"/>
       <c r="O6" s="51"/>
-      <c r="Q6" s="111"/>
-      <c r="R6" s="111"/>
+      <c r="Q6" s="106"/>
+      <c r="R6" s="106"/>
     </row>
     <row r="7" ht="15.5" spans="1:18">
-      <c r="A7" s="100"/>
+      <c r="A7" s="95"/>
       <c r="B7" s="51"/>
       <c r="C7" s="51"/>
       <c r="D7" s="28"/>
@@ -10756,8 +10744,8 @@
       <c r="N7" s="51"/>
       <c r="O7" s="51"/>
       <c r="P7" s="28"/>
-      <c r="Q7" s="111"/>
-      <c r="R7" s="111"/>
+      <c r="Q7" s="106"/>
+      <c r="R7" s="106"/>
     </row>
     <row r="8" ht="15.5" spans="1:18">
       <c r="A8" s="28" t="s">
@@ -10774,8 +10762,8 @@
       <c r="N8" s="51"/>
       <c r="O8" s="51"/>
       <c r="P8" s="28"/>
-      <c r="Q8" s="111"/>
-      <c r="R8" s="111"/>
+      <c r="Q8" s="106"/>
+      <c r="R8" s="106"/>
     </row>
     <row r="9" ht="15.5" spans="1:18">
       <c r="A9" s="28"/>
@@ -10794,8 +10782,8 @@
       <c r="N9" s="51"/>
       <c r="O9" s="28"/>
       <c r="P9" s="51"/>
-      <c r="Q9" s="112"/>
-      <c r="R9" s="112"/>
+      <c r="Q9" s="107"/>
+      <c r="R9" s="107"/>
     </row>
     <row r="10" ht="15.5" spans="1:18">
       <c r="A10" s="28" t="s">
@@ -10819,8 +10807,8 @@
         <v>0.288194444444444</v>
       </c>
       <c r="O10" s="51"/>
-      <c r="Q10" s="112"/>
-      <c r="R10" s="112"/>
+      <c r="Q10" s="107"/>
+      <c r="R10" s="107"/>
     </row>
     <row r="11" ht="15.5" spans="1:18">
       <c r="A11" s="28" t="s">
@@ -10848,46 +10836,46 @@
       <c r="P11" s="28">
         <v>0.291666666666667</v>
       </c>
-      <c r="Q11" s="65"/>
-      <c r="R11" s="65"/>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="63"/>
     </row>
     <row r="12" ht="15.5" spans="1:18">
       <c r="A12" s="28" t="s">
         <v>56</v>
       </c>
       <c r="B12" s="28"/>
-      <c r="C12" s="102"/>
+      <c r="C12" s="97"/>
       <c r="D12" s="28"/>
       <c r="E12" s="28"/>
       <c r="F12" s="28"/>
       <c r="G12" s="28"/>
-      <c r="H12" s="102"/>
+      <c r="H12" s="97"/>
       <c r="K12" s="51"/>
       <c r="L12" s="51"/>
       <c r="M12" s="51"/>
       <c r="N12" s="51"/>
-      <c r="Q12" s="65"/>
-      <c r="R12" s="65"/>
+      <c r="Q12" s="63"/>
+      <c r="R12" s="63"/>
     </row>
     <row r="13" ht="15.5" spans="1:18">
       <c r="A13" s="28" t="s">
         <v>189</v>
       </c>
       <c r="B13" s="28"/>
-      <c r="C13" s="102"/>
+      <c r="C13" s="97"/>
       <c r="D13" s="28"/>
       <c r="E13" s="28"/>
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
-      <c r="H13" s="102"/>
+      <c r="H13" s="97"/>
       <c r="I13" s="28"/>
       <c r="J13" s="28"/>
       <c r="K13" s="51"/>
-      <c r="L13" s="104"/>
-      <c r="M13" s="104"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="99"/>
       <c r="N13" s="51"/>
-      <c r="Q13" s="65"/>
-      <c r="R13" s="65"/>
+      <c r="Q13" s="63"/>
+      <c r="R13" s="63"/>
     </row>
     <row r="14" ht="16.5" customHeight="1" spans="1:18">
       <c r="A14" s="28" t="s">
@@ -10915,8 +10903,8 @@
       <c r="K14" s="28"/>
       <c r="N14" s="28"/>
       <c r="P14" s="51"/>
-      <c r="Q14" s="65"/>
-      <c r="R14" s="65"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="63"/>
     </row>
     <row r="15" ht="15.5" spans="1:18">
       <c r="A15" s="28" t="s">
@@ -10938,22 +10926,22 @@
       <c r="P15" s="51">
         <v>0.333333333333333</v>
       </c>
-      <c r="Q15" s="65"/>
-      <c r="R15" s="65"/>
+      <c r="Q15" s="63"/>
+      <c r="R15" s="63"/>
     </row>
     <row r="16" ht="15.5" spans="1:18">
       <c r="A16" s="28"/>
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
-      <c r="D16" s="102"/>
+      <c r="D16" s="97"/>
       <c r="E16" s="28"/>
       <c r="I16" s="28"/>
       <c r="K16" s="51"/>
       <c r="N16" s="28"/>
       <c r="O16" s="28"/>
       <c r="P16" s="51"/>
-      <c r="Q16" s="65"/>
-      <c r="R16" s="65"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="63"/>
     </row>
     <row r="17" ht="15.5" spans="1:18">
       <c r="A17" s="28" t="s">
@@ -10977,8 +10965,8 @@
       <c r="P17" s="28">
         <v>0.375</v>
       </c>
-      <c r="Q17" s="65"/>
-      <c r="R17" s="65"/>
+      <c r="Q17" s="63"/>
+      <c r="R17" s="63"/>
     </row>
     <row r="18" ht="15.5" spans="1:18">
       <c r="A18" s="28" t="s">
@@ -11001,8 +10989,8 @@
       <c r="L18" s="51"/>
       <c r="M18" s="28"/>
       <c r="O18" s="51"/>
-      <c r="Q18" s="112"/>
-      <c r="R18" s="112"/>
+      <c r="Q18" s="107"/>
+      <c r="R18" s="107"/>
     </row>
     <row r="19" ht="15.5" spans="1:18">
       <c r="A19" s="28" t="s">
@@ -11022,8 +11010,8 @@
       <c r="M19" s="28"/>
       <c r="O19" s="51"/>
       <c r="P19" s="28"/>
-      <c r="Q19" s="112"/>
-      <c r="R19" s="112"/>
+      <c r="Q19" s="107"/>
+      <c r="R19" s="107"/>
     </row>
     <row r="20" ht="15" customHeight="1" spans="1:18">
       <c r="A20" s="28"/>
@@ -11042,11 +11030,11 @@
       <c r="N20" s="51"/>
       <c r="O20" s="28"/>
       <c r="P20" s="28"/>
-      <c r="Q20" s="65"/>
-      <c r="R20" s="65"/>
+      <c r="Q20" s="63"/>
+      <c r="R20" s="63"/>
     </row>
     <row r="21" ht="15.5" spans="1:18">
-      <c r="A21" s="103" t="s">
+      <c r="A21" s="98" t="s">
         <v>191</v>
       </c>
       <c r="B21" s="28"/>
@@ -11072,11 +11060,11 @@
       <c r="P21" s="28">
         <v>0.416666666666667</v>
       </c>
-      <c r="Q21" s="65"/>
-      <c r="R21" s="65"/>
+      <c r="Q21" s="63"/>
+      <c r="R21" s="63"/>
     </row>
     <row r="22" ht="15.5" spans="1:18">
-      <c r="A22" s="103" t="s">
+      <c r="A22" s="98" t="s">
         <v>192</v>
       </c>
       <c r="B22" s="28"/>
@@ -11097,11 +11085,11 @@
       <c r="N22" s="28">
         <v>0.413194444444444</v>
       </c>
-      <c r="Q22" s="65"/>
-      <c r="R22" s="65"/>
+      <c r="Q22" s="63"/>
+      <c r="R22" s="63"/>
     </row>
     <row r="23" ht="15.5" spans="1:18">
-      <c r="A23" s="103" t="s">
+      <c r="A23" s="98" t="s">
         <v>193</v>
       </c>
       <c r="B23" s="51"/>
@@ -11116,11 +11104,11 @@
       <c r="L23" s="51"/>
       <c r="M23" s="51"/>
       <c r="N23" s="28"/>
-      <c r="Q23" s="112"/>
-      <c r="R23" s="112"/>
+      <c r="Q23" s="107"/>
+      <c r="R23" s="107"/>
     </row>
     <row r="24" ht="15.5" spans="1:18">
-      <c r="A24" s="103"/>
+      <c r="A24" s="98"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
       <c r="D24" s="51"/>
@@ -11136,11 +11124,11 @@
       <c r="N24" s="51"/>
       <c r="O24" s="51"/>
       <c r="P24" s="51"/>
-      <c r="Q24" s="112"/>
-      <c r="R24" s="112"/>
+      <c r="Q24" s="107"/>
+      <c r="R24" s="107"/>
     </row>
     <row r="25" ht="15.5" spans="1:18">
-      <c r="A25" s="100" t="s">
+      <c r="A25" s="95" t="s">
         <v>154</v>
       </c>
       <c r="D25" s="28"/>
@@ -11158,11 +11146,11 @@
       <c r="J25" s="28"/>
       <c r="K25" s="51"/>
       <c r="L25" s="51"/>
-      <c r="Q25" s="112"/>
-      <c r="R25" s="112"/>
+      <c r="Q25" s="107"/>
+      <c r="R25" s="107"/>
     </row>
     <row r="26" ht="15.5" spans="1:18">
-      <c r="A26" s="100" t="s">
+      <c r="A26" s="95" t="s">
         <v>155</v>
       </c>
       <c r="B26" s="28">
@@ -11183,8 +11171,8 @@
       <c r="M26" s="51"/>
       <c r="N26" s="51"/>
       <c r="O26" s="28"/>
-      <c r="Q26" s="112"/>
-      <c r="R26" s="112"/>
+      <c r="Q26" s="107"/>
+      <c r="R26" s="107"/>
     </row>
     <row r="27" ht="15.5" spans="1:18">
       <c r="A27" s="28" t="s">
@@ -11208,31 +11196,31 @@
       <c r="P27" s="51">
         <v>0.458333333333333</v>
       </c>
-      <c r="Q27" s="65"/>
-      <c r="R27" s="65"/>
+      <c r="Q27" s="63"/>
+      <c r="R27" s="63"/>
     </row>
     <row r="28" ht="15.5" spans="1:18">
       <c r="A28" s="28" t="s">
         <v>195</v>
       </c>
       <c r="B28" s="51"/>
-      <c r="C28" s="104"/>
-      <c r="D28" s="102"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="97"/>
       <c r="E28" s="51"/>
       <c r="F28" s="51"/>
       <c r="G28" s="51"/>
-      <c r="H28" s="104"/>
-      <c r="I28" s="104"/>
+      <c r="H28" s="99"/>
+      <c r="I28" s="99"/>
       <c r="J28" s="51"/>
       <c r="K28" s="51"/>
       <c r="L28" s="51"/>
       <c r="M28" s="51"/>
       <c r="N28" s="28"/>
-      <c r="Q28" s="65"/>
-      <c r="R28" s="65"/>
+      <c r="Q28" s="63"/>
+      <c r="R28" s="63"/>
     </row>
     <row r="29" ht="15.5" spans="1:18">
-      <c r="A29" s="100" t="s">
+      <c r="A29" s="95" t="s">
         <v>69</v>
       </c>
       <c r="B29" s="28"/>
@@ -11256,11 +11244,11 @@
       <c r="P29" s="28">
         <v>0.5</v>
       </c>
-      <c r="Q29" s="65"/>
-      <c r="R29" s="65"/>
+      <c r="Q29" s="63"/>
+      <c r="R29" s="63"/>
     </row>
     <row r="30" ht="15.5" spans="1:18">
-      <c r="A30" s="100" t="s">
+      <c r="A30" s="95" t="s">
         <v>71</v>
       </c>
       <c r="B30" s="28"/>
@@ -11277,8 +11265,8 @@
       <c r="N30" s="51"/>
       <c r="O30" s="28"/>
       <c r="P30" s="28"/>
-      <c r="Q30" s="65"/>
-      <c r="R30" s="65"/>
+      <c r="Q30" s="63"/>
+      <c r="R30" s="63"/>
     </row>
     <row r="31" ht="15.5" spans="1:18">
       <c r="A31" s="28" t="s">
@@ -11308,8 +11296,8 @@
       </c>
       <c r="N31" s="28"/>
       <c r="O31" s="28"/>
-      <c r="Q31" s="112"/>
-      <c r="R31" s="112"/>
+      <c r="Q31" s="107"/>
+      <c r="R31" s="107"/>
     </row>
     <row r="32" ht="15.5" spans="1:18">
       <c r="A32" s="28" t="s">
@@ -11337,8 +11325,8 @@
       <c r="P32" s="28">
         <v>0.541666666666667</v>
       </c>
-      <c r="Q32" s="112"/>
-      <c r="R32" s="112"/>
+      <c r="Q32" s="107"/>
+      <c r="R32" s="107"/>
     </row>
     <row r="33" ht="18" customHeight="1" spans="1:18">
       <c r="A33" s="28" t="s">
@@ -11361,8 +11349,8 @@
         <v>0.579861111111111</v>
       </c>
       <c r="P33" s="28"/>
-      <c r="Q33" s="65"/>
-      <c r="R33" s="65"/>
+      <c r="Q33" s="63"/>
+      <c r="R33" s="63"/>
     </row>
     <row r="34" ht="18" customHeight="1" spans="1:18">
       <c r="A34" s="28" t="s">
@@ -11378,8 +11366,8 @@
       <c r="K34" s="28"/>
       <c r="N34" s="28"/>
       <c r="O34" s="28"/>
-      <c r="Q34" s="65"/>
-      <c r="R34" s="65"/>
+      <c r="Q34" s="63"/>
+      <c r="R34" s="63"/>
     </row>
     <row r="35" ht="15.5" spans="1:18">
       <c r="A35" s="28" t="s">
@@ -11405,8 +11393,8 @@
       <c r="P35" s="28">
         <v>0.625</v>
       </c>
-      <c r="Q35" s="112"/>
-      <c r="R35" s="112"/>
+      <c r="Q35" s="107"/>
+      <c r="R35" s="107"/>
     </row>
     <row r="36" ht="15.75" hidden="1" customHeight="1" spans="1:18">
       <c r="A36" s="28" t="s">
@@ -11429,8 +11417,8 @@
       <c r="N36" s="28"/>
       <c r="O36" s="51"/>
       <c r="P36" s="28"/>
-      <c r="Q36" s="65"/>
-      <c r="R36" s="65"/>
+      <c r="Q36" s="63"/>
+      <c r="R36" s="63"/>
     </row>
     <row r="37" ht="16.5" customHeight="1" spans="1:18">
       <c r="A37" s="28" t="s">
@@ -11441,8 +11429,8 @@
       <c r="D37" s="28"/>
       <c r="E37" s="28"/>
       <c r="F37" s="28"/>
-      <c r="Q37" s="65"/>
-      <c r="R37" s="65"/>
+      <c r="Q37" s="63"/>
+      <c r="R37" s="63"/>
     </row>
     <row r="38" ht="15.5" spans="1:18">
       <c r="A38" s="28" t="s">
@@ -11466,9 +11454,9 @@
       <c r="N38" s="28">
         <v>0.663194444444444</v>
       </c>
-      <c r="O38" s="92"/>
-      <c r="Q38" s="65"/>
-      <c r="R38" s="65"/>
+      <c r="O38" s="87"/>
+      <c r="Q38" s="63"/>
+      <c r="R38" s="63"/>
     </row>
     <row r="39" ht="15.5" spans="1:18">
       <c r="A39" s="28" t="s">
@@ -11485,7 +11473,7 @@
       </c>
       <c r="J39" s="28"/>
       <c r="K39" s="28"/>
-      <c r="L39" s="102"/>
+      <c r="L39" s="97"/>
       <c r="N39" s="28"/>
       <c r="O39" s="28">
         <v>0.663194444444444</v>
@@ -11493,129 +11481,129 @@
       <c r="P39" s="28">
         <v>0.666666666666667</v>
       </c>
-      <c r="Q39" s="65"/>
-      <c r="R39" s="65"/>
+      <c r="Q39" s="63"/>
+      <c r="R39" s="63"/>
     </row>
     <row r="40" ht="15.5" spans="1:18">
       <c r="A40" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="B40" s="102"/>
+      <c r="B40" s="97"/>
       <c r="C40" s="51"/>
       <c r="E40" s="28"/>
-      <c r="F40" s="102"/>
+      <c r="F40" s="97"/>
       <c r="G40" s="28"/>
       <c r="H40" s="28"/>
-      <c r="Q40" s="65"/>
-      <c r="R40" s="65"/>
+      <c r="Q40" s="63"/>
+      <c r="R40" s="63"/>
     </row>
     <row r="41" ht="15.5" spans="1:18">
       <c r="A41" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="C41" s="92"/>
-      <c r="D41" s="105"/>
-      <c r="E41" s="92">
+      <c r="C41" s="87"/>
+      <c r="D41" s="100"/>
+      <c r="E41" s="87">
         <v>0.684027777777778</v>
       </c>
-      <c r="G41" s="92">
+      <c r="G41" s="87">
         <v>0.690972222222222</v>
       </c>
-      <c r="H41" s="92">
+      <c r="H41" s="87">
         <v>0.694444444444445</v>
       </c>
       <c r="K41" s="28"/>
-      <c r="M41" s="105"/>
-      <c r="N41" s="92"/>
-      <c r="O41" s="92"/>
-      <c r="P41" s="92">
+      <c r="M41" s="100"/>
+      <c r="N41" s="87"/>
+      <c r="O41" s="87"/>
+      <c r="P41" s="87">
         <v>0.708333333333333</v>
       </c>
-      <c r="Q41" s="65"/>
-      <c r="R41" s="65"/>
+      <c r="Q41" s="63"/>
+      <c r="R41" s="63"/>
     </row>
     <row r="42" ht="15.5" spans="1:18">
       <c r="A42" s="28" t="s">
         <v>205</v>
       </c>
       <c r="B42" s="28"/>
-      <c r="C42" s="92"/>
-      <c r="D42" s="92"/>
-      <c r="E42" s="92"/>
-      <c r="F42" s="92"/>
-      <c r="H42" s="92"/>
-      <c r="J42" s="92"/>
-      <c r="L42" s="92"/>
-      <c r="M42" s="92"/>
+      <c r="C42" s="87"/>
+      <c r="D42" s="87"/>
+      <c r="E42" s="87"/>
+      <c r="F42" s="87"/>
+      <c r="H42" s="87"/>
+      <c r="J42" s="87"/>
+      <c r="L42" s="87"/>
+      <c r="M42" s="87"/>
       <c r="N42" s="28"/>
       <c r="O42" s="28"/>
-      <c r="Q42" s="65"/>
-      <c r="R42" s="65"/>
+      <c r="Q42" s="63"/>
+      <c r="R42" s="63"/>
     </row>
     <row r="43" ht="15.5" spans="1:18">
       <c r="A43" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="B43" s="92"/>
-      <c r="D43" s="92">
+      <c r="B43" s="87"/>
+      <c r="D43" s="87">
         <v>0.725694444444445</v>
       </c>
-      <c r="E43" s="92"/>
-      <c r="F43" s="92"/>
-      <c r="G43" s="92">
+      <c r="E43" s="87"/>
+      <c r="F43" s="87"/>
+      <c r="G43" s="87">
         <v>0.732638888888889</v>
       </c>
-      <c r="H43" s="92">
+      <c r="H43" s="87">
         <v>0.736111111111111</v>
       </c>
       <c r="I43" s="28"/>
-      <c r="J43" s="92"/>
-      <c r="M43" s="92"/>
+      <c r="J43" s="87"/>
+      <c r="M43" s="87"/>
       <c r="N43" s="28"/>
       <c r="O43" s="28"/>
-      <c r="P43" s="92">
+      <c r="P43" s="87">
         <v>0.75</v>
       </c>
-      <c r="Q43" s="65"/>
-      <c r="R43" s="65"/>
+      <c r="Q43" s="63"/>
+      <c r="R43" s="63"/>
     </row>
     <row r="44" ht="15.5" spans="1:18">
       <c r="A44" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="B44" s="106"/>
-      <c r="D44" s="106"/>
-      <c r="E44" s="92"/>
-      <c r="F44" s="92"/>
-      <c r="G44" s="92"/>
-      <c r="H44" s="92"/>
-      <c r="I44" s="102"/>
-      <c r="J44" s="92"/>
-      <c r="L44" s="92"/>
-      <c r="M44" s="92"/>
-      <c r="N44" s="102"/>
+      <c r="B44" s="101"/>
+      <c r="D44" s="101"/>
+      <c r="E44" s="87"/>
+      <c r="F44" s="87"/>
+      <c r="G44" s="87"/>
+      <c r="H44" s="87"/>
+      <c r="I44" s="97"/>
+      <c r="J44" s="87"/>
+      <c r="L44" s="87"/>
+      <c r="M44" s="87"/>
+      <c r="N44" s="97"/>
       <c r="O44" s="28"/>
-      <c r="P44" s="92"/>
-      <c r="Q44" s="65"/>
-      <c r="R44" s="65"/>
+      <c r="P44" s="87"/>
+      <c r="Q44" s="63"/>
+      <c r="R44" s="63"/>
     </row>
     <row r="45" ht="16.5" customHeight="1" spans="1:18">
       <c r="A45" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="E45" s="92"/>
-      <c r="F45" s="92"/>
-      <c r="G45" s="92"/>
-      <c r="H45" s="92">
+      <c r="E45" s="87"/>
+      <c r="F45" s="87"/>
+      <c r="G45" s="87"/>
+      <c r="H45" s="87">
         <v>0.777777777777778</v>
       </c>
       <c r="J45" s="28"/>
       <c r="K45" s="28"/>
-      <c r="M45" s="92"/>
+      <c r="M45" s="87"/>
       <c r="O45" s="28"/>
-      <c r="P45" s="105"/>
-      <c r="Q45" s="112"/>
-      <c r="R45" s="112"/>
+      <c r="P45" s="100"/>
+      <c r="Q45" s="107"/>
+      <c r="R45" s="107"/>
     </row>
     <row r="46" ht="15.5" spans="1:18">
       <c r="A46" s="28" t="s">
@@ -11625,7 +11613,7 @@
       <c r="C46" s="51"/>
       <c r="D46" s="28"/>
       <c r="E46" s="28"/>
-      <c r="G46" s="101"/>
+      <c r="G46" s="96"/>
       <c r="H46" s="28"/>
       <c r="I46" s="28"/>
       <c r="J46" s="28"/>
@@ -11634,29 +11622,29 @@
       <c r="M46" s="51"/>
       <c r="N46" s="51"/>
       <c r="O46" s="51"/>
-      <c r="Q46" s="65"/>
-      <c r="R46" s="65"/>
+      <c r="Q46" s="63"/>
+      <c r="R46" s="63"/>
     </row>
     <row r="47" ht="18" customHeight="1" spans="1:18">
       <c r="A47" s="28" t="s">
         <v>210</v>
       </c>
       <c r="B47" s="51"/>
-      <c r="E47" s="105"/>
-      <c r="F47" s="92">
+      <c r="E47" s="100"/>
+      <c r="F47" s="87">
         <v>0.8125</v>
       </c>
-      <c r="H47" s="92">
+      <c r="H47" s="87">
         <v>0.819444444444445</v>
       </c>
-      <c r="I47" s="105"/>
-      <c r="J47" s="105"/>
-      <c r="K47" s="105"/>
-      <c r="L47" s="105"/>
-      <c r="M47" s="105"/>
+      <c r="I47" s="100"/>
+      <c r="J47" s="100"/>
+      <c r="K47" s="100"/>
+      <c r="L47" s="100"/>
+      <c r="M47" s="100"/>
       <c r="N47" s="28"/>
       <c r="O47" s="28"/>
-      <c r="P47" s="105"/>
+      <c r="P47" s="100"/>
       <c r="Q47" s="7"/>
       <c r="R47" s="7"/>
     </row>
@@ -11676,145 +11664,145 @@
       <c r="M48" s="51"/>
       <c r="N48" s="28"/>
       <c r="O48" s="28"/>
-      <c r="P48" s="92"/>
-      <c r="Q48" s="65"/>
-      <c r="R48" s="65"/>
+      <c r="P48" s="87"/>
+      <c r="Q48" s="63"/>
+      <c r="R48" s="63"/>
     </row>
     <row r="49" ht="15.5" spans="1:18">
       <c r="A49" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="C49" s="107"/>
-      <c r="D49" s="92"/>
-      <c r="E49" s="105"/>
-      <c r="F49" s="105"/>
-      <c r="H49" s="105">
+      <c r="C49" s="102"/>
+      <c r="D49" s="87"/>
+      <c r="E49" s="100"/>
+      <c r="F49" s="100"/>
+      <c r="H49" s="100">
         <v>0.861111111111111</v>
       </c>
-      <c r="J49" s="105"/>
-      <c r="K49" s="92"/>
-      <c r="L49" s="105">
+      <c r="J49" s="100"/>
+      <c r="K49" s="87"/>
+      <c r="L49" s="100">
         <v>0.871527777777778</v>
       </c>
-      <c r="M49" s="105"/>
-      <c r="N49" s="92"/>
-      <c r="O49" s="105"/>
-      <c r="P49" s="105"/>
-      <c r="Q49" s="112"/>
-      <c r="R49" s="112"/>
+      <c r="M49" s="100"/>
+      <c r="N49" s="87"/>
+      <c r="O49" s="100"/>
+      <c r="P49" s="100"/>
+      <c r="Q49" s="107"/>
+      <c r="R49" s="107"/>
     </row>
     <row r="50" ht="15.75" hidden="1" customHeight="1" spans="1:18">
-      <c r="A50" s="108" t="s">
+      <c r="A50" s="103" t="s">
         <v>127</v>
       </c>
-      <c r="B50" s="92">
+      <c r="B50" s="87">
         <v>0.895833333333333</v>
       </c>
-      <c r="C50" s="94"/>
-      <c r="D50" s="94"/>
-      <c r="E50" s="92">
+      <c r="C50" s="89"/>
+      <c r="D50" s="89"/>
+      <c r="E50" s="87">
         <v>0.899305555555555</v>
       </c>
-      <c r="F50" s="94"/>
-      <c r="G50" s="94"/>
-      <c r="H50" s="92">
+      <c r="F50" s="89"/>
+      <c r="G50" s="89"/>
+      <c r="H50" s="87">
         <v>0.90625</v>
       </c>
-      <c r="I50" s="92">
+      <c r="I50" s="87">
         <v>0.913194444444445</v>
       </c>
-      <c r="J50" s="94"/>
-      <c r="K50" s="94"/>
-      <c r="L50" s="94"/>
-      <c r="M50" s="94"/>
-      <c r="N50" s="94"/>
-      <c r="O50" s="94"/>
-      <c r="P50" s="92">
+      <c r="J50" s="89"/>
+      <c r="K50" s="89"/>
+      <c r="L50" s="89"/>
+      <c r="M50" s="89"/>
+      <c r="N50" s="89"/>
+      <c r="O50" s="89"/>
+      <c r="P50" s="87">
         <v>0.923611111111111</v>
       </c>
-      <c r="Q50" s="65"/>
-      <c r="R50" s="65"/>
+      <c r="Q50" s="63"/>
+      <c r="R50" s="63"/>
     </row>
     <row r="51" ht="15.75" hidden="1" customHeight="1" spans="1:18">
-      <c r="A51" s="109" t="s">
+      <c r="A51" s="104" t="s">
         <v>212</v>
       </c>
-      <c r="B51" s="94"/>
-      <c r="C51" s="94"/>
-      <c r="D51" s="94"/>
-      <c r="E51" s="94"/>
-      <c r="F51" s="94"/>
-      <c r="G51" s="94"/>
-      <c r="H51" s="94"/>
-      <c r="I51" s="94"/>
-      <c r="J51" s="94"/>
-      <c r="K51" s="94"/>
-      <c r="L51" s="94"/>
-      <c r="M51" s="94"/>
-      <c r="N51" s="94"/>
-      <c r="O51" s="94"/>
-      <c r="P51" s="94"/>
-      <c r="Q51" s="112"/>
-      <c r="R51" s="112"/>
+      <c r="B51" s="89"/>
+      <c r="C51" s="89"/>
+      <c r="D51" s="89"/>
+      <c r="E51" s="89"/>
+      <c r="F51" s="89"/>
+      <c r="G51" s="89"/>
+      <c r="H51" s="89"/>
+      <c r="I51" s="89"/>
+      <c r="J51" s="89"/>
+      <c r="K51" s="89"/>
+      <c r="L51" s="89"/>
+      <c r="M51" s="89"/>
+      <c r="N51" s="89"/>
+      <c r="O51" s="89"/>
+      <c r="P51" s="89"/>
+      <c r="Q51" s="107"/>
+      <c r="R51" s="107"/>
     </row>
     <row r="52" ht="15.5" spans="1:18">
       <c r="A52" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="B52" s="105"/>
-      <c r="C52" s="105"/>
-      <c r="D52" s="105"/>
-      <c r="F52" s="105">
+      <c r="B52" s="100"/>
+      <c r="C52" s="100"/>
+      <c r="D52" s="100"/>
+      <c r="F52" s="100">
         <v>0.895833333333333</v>
       </c>
-      <c r="G52" s="105"/>
-      <c r="H52" s="105">
+      <c r="G52" s="100"/>
+      <c r="H52" s="100">
         <v>0.902777777777778</v>
       </c>
-      <c r="L52" s="105"/>
-      <c r="M52" s="110"/>
-      <c r="N52" s="92"/>
-      <c r="O52" s="105">
+      <c r="L52" s="100"/>
+      <c r="M52" s="105"/>
+      <c r="N52" s="87"/>
+      <c r="O52" s="100">
         <v>0.913194444444445</v>
       </c>
-      <c r="P52" s="105">
+      <c r="P52" s="100">
         <v>0.916666666666667</v>
       </c>
-      <c r="Q52" s="113"/>
-      <c r="R52" s="113"/>
+      <c r="Q52" s="108"/>
+      <c r="R52" s="108"/>
     </row>
     <row r="53" ht="15.5" spans="1:18">
       <c r="A53" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="B53" s="105">
+      <c r="B53" s="100">
         <v>0.895833333333333</v>
       </c>
-      <c r="C53" s="110"/>
-      <c r="D53" s="105"/>
-      <c r="E53" s="105"/>
-      <c r="F53" s="105"/>
-      <c r="I53" s="105"/>
-      <c r="J53" s="105">
+      <c r="C53" s="105"/>
+      <c r="D53" s="100"/>
+      <c r="E53" s="100"/>
+      <c r="F53" s="100"/>
+      <c r="I53" s="100"/>
+      <c r="J53" s="100">
         <v>0.909722222222222</v>
       </c>
-      <c r="L53" s="105">
+      <c r="L53" s="100">
         <v>0.913194444444445</v>
       </c>
-      <c r="Q53" s="113"/>
-      <c r="R53" s="113"/>
+      <c r="Q53" s="108"/>
+      <c r="R53" s="108"/>
     </row>
     <row r="54" ht="15.5" spans="1:15">
       <c r="A54" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="B54" s="105"/>
-      <c r="D54" s="105"/>
-      <c r="E54" s="105"/>
-      <c r="I54" s="105"/>
+      <c r="B54" s="100"/>
+      <c r="D54" s="100"/>
+      <c r="E54" s="100"/>
+      <c r="I54" s="100"/>
       <c r="L54" s="28"/>
-      <c r="N54" s="92"/>
-      <c r="O54" s="105"/>
+      <c r="N54" s="87"/>
+      <c r="O54" s="100"/>
     </row>
     <row r="57" spans="9:9">
       <c r="I57" s="1" t="s">
@@ -11924,10 +11912,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="25.4272727272727" style="76" customWidth="1"/>
-    <col min="2" max="2" width="10.5727272727273" style="77" customWidth="1"/>
-    <col min="3" max="3" width="15.5727272727273" style="77" customWidth="1"/>
-    <col min="4" max="4" width="15" style="77" customWidth="1"/>
+    <col min="1" max="1" width="25.4272727272727" style="73" customWidth="1"/>
+    <col min="2" max="2" width="10.5727272727273" style="74" customWidth="1"/>
+    <col min="3" max="3" width="15.5727272727273" style="74" customWidth="1"/>
+    <col min="4" max="4" width="15" style="74" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.5" spans="1:4">
@@ -11947,36 +11935,36 @@
       <c r="D2" s="52"/>
     </row>
     <row r="3" ht="16.5" customHeight="1" spans="1:4">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="78"/>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A4" s="82"/>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="79"/>
+      <c r="B4" s="80" t="s">
         <v>220</v>
       </c>
-      <c r="C4" s="83" t="s">
+      <c r="C4" s="80" t="s">
         <v>221</v>
       </c>
-      <c r="D4" s="83" t="s">
+      <c r="D4" s="80" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:11">
-      <c r="A5" s="84"/>
-      <c r="B5" s="85" t="s">
+      <c r="A5" s="81"/>
+      <c r="B5" s="82" t="s">
         <v>223</v>
       </c>
-      <c r="C5" s="85" t="s">
+      <c r="C5" s="82" t="s">
         <v>224</v>
       </c>
-      <c r="D5" s="85" t="s">
+      <c r="D5" s="82" t="s">
         <v>225</v>
       </c>
       <c r="K5" t="s">
@@ -11984,7 +11972,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="86" t="s">
+      <c r="A6" s="83" t="s">
         <v>52</v>
       </c>
       <c r="B6" s="28">
@@ -11994,7 +11982,7 @@
       <c r="D6" s="15"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:4">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="83" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="14"/>
@@ -12002,7 +11990,7 @@
       <c r="D7" s="15"/>
     </row>
     <row r="8" ht="16.5" customHeight="1" spans="1:4">
-      <c r="A8" s="86" t="s">
+      <c r="A8" s="83" t="s">
         <v>54</v>
       </c>
       <c r="B8" s="14"/>
@@ -12014,15 +12002,15 @@
       </c>
     </row>
     <row r="9" ht="16.5" customHeight="1" spans="1:4">
-      <c r="A9" s="86" t="s">
+      <c r="A9" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="87"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="86" t="s">
+      <c r="A10" s="83" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="14"/>
@@ -12032,7 +12020,7 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="88" t="s">
+      <c r="A11" s="85" t="s">
         <v>148</v>
       </c>
       <c r="B11" s="14">
@@ -12042,19 +12030,19 @@
       <c r="D11" s="15"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="88"/>
+      <c r="A12" s="85"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="88"/>
+      <c r="A13" s="85"/>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
     </row>
     <row r="14" ht="15" customHeight="1" spans="1:4">
-      <c r="A14" s="89" t="s">
+      <c r="A14" s="86" t="s">
         <v>152</v>
       </c>
       <c r="B14" s="15">
@@ -12068,21 +12056,21 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="89" t="s">
+      <c r="A15" s="86" t="s">
         <v>63</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="26"/>
-      <c r="D15" s="90"/>
+      <c r="D15" s="84"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="89"/>
+      <c r="A16" s="86"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="26"/>
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:4">
-      <c r="A17" s="89" t="s">
+      <c r="A17" s="86" t="s">
         <v>154</v>
       </c>
       <c r="B17" s="15">
@@ -12091,12 +12079,12 @@
       <c r="C17" s="15">
         <v>0.451388888888889</v>
       </c>
-      <c r="D17" s="91">
+      <c r="D17" s="14">
         <v>0.454861111111111</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="89" t="s">
+      <c r="A18" s="86" t="s">
         <v>155</v>
       </c>
       <c r="B18" s="15"/>
@@ -12104,7 +12092,7 @@
       <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="88" t="s">
+      <c r="A19" s="85" t="s">
         <v>227</v>
       </c>
       <c r="B19" s="28"/>
@@ -12116,7 +12104,7 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="88" t="s">
+      <c r="A20" s="85" t="s">
         <v>228</v>
       </c>
       <c r="B20" s="28">
@@ -12250,33 +12238,33 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="24"/>
-      <c r="B35" s="92"/>
-      <c r="C35" s="92"/>
+      <c r="B35" s="87"/>
+      <c r="C35" s="87"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="24"/>
-      <c r="B36" s="93"/>
-      <c r="C36" s="94"/>
-      <c r="D36" s="94"/>
+      <c r="B36" s="88"/>
+      <c r="C36" s="89"/>
+      <c r="D36" s="89"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="88"/>
-      <c r="B37" s="93"/>
-      <c r="C37" s="92"/>
-      <c r="D37" s="94"/>
+      <c r="A37" s="85"/>
+      <c r="B37" s="88"/>
+      <c r="C37" s="87"/>
+      <c r="D37" s="89"/>
     </row>
     <row r="38" ht="17.25" hidden="1" customHeight="1" spans="1:4">
-      <c r="A38" s="95" t="s">
+      <c r="A38" s="90" t="s">
         <v>162</v>
       </c>
-      <c r="B38" s="94"/>
-      <c r="C38" s="92">
+      <c r="B38" s="89"/>
+      <c r="C38" s="87">
         <v>0.909722222222222</v>
       </c>
-      <c r="D38" s="94"/>
+      <c r="D38" s="89"/>
     </row>
     <row r="41" spans="3:3">
-      <c r="C41" s="77">
+      <c r="C41" s="74">
         <v>0</v>
       </c>
     </row>
@@ -12467,21 +12455,21 @@
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:13">
-      <c r="A6" s="68"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="26"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="73"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="70"/>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:13">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="65" t="s">
         <v>245</v>
       </c>
       <c r="B7" s="15"/>
@@ -12489,15 +12477,15 @@
       <c r="D7" s="15"/>
       <c r="E7" s="13"/>
       <c r="F7" s="15"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="75"/>
-      <c r="M7" s="73"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="70"/>
     </row>
     <row r="8" ht="15.95" customHeight="1" spans="1:13">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="65" t="s">
         <v>54</v>
       </c>
       <c r="B8" s="15">
@@ -12512,16 +12500,16 @@
       <c r="E8" s="15">
         <v>0.277777777777777</v>
       </c>
-      <c r="F8" s="65"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="75"/>
-      <c r="M8" s="73"/>
+      <c r="F8" s="63"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="70"/>
     </row>
     <row r="9" ht="15.5" spans="1:6">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="65" t="s">
         <v>55</v>
       </c>
       <c r="B9" s="15"/>
@@ -12531,7 +12519,7 @@
       <c r="F9" s="15"/>
     </row>
     <row r="10" ht="15.5" spans="1:6">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="65" t="s">
         <v>110</v>
       </c>
       <c r="B10" s="15">
@@ -12545,7 +12533,7 @@
       </c>
     </row>
     <row r="11" ht="16.5" customHeight="1" spans="1:6">
-      <c r="A11" s="70" t="s">
+      <c r="A11" s="67" t="s">
         <v>148</v>
       </c>
       <c r="B11" s="15">
@@ -12561,7 +12549,7 @@
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1" spans="1:12">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="67" t="s">
         <v>152</v>
       </c>
       <c r="B12" s="15">
@@ -12580,7 +12568,7 @@
       </c>
     </row>
     <row r="13" ht="16.5" customHeight="1" spans="1:12">
-      <c r="A13" s="70" t="s">
+      <c r="A13" s="67" t="s">
         <v>63</v>
       </c>
       <c r="B13" s="13"/>
@@ -12597,7 +12585,7 @@
       </c>
     </row>
     <row r="14" ht="17.25" customHeight="1" spans="1:6">
-      <c r="A14" s="70" t="s">
+      <c r="A14" s="67" t="s">
         <v>154</v>
       </c>
       <c r="B14" s="15">
@@ -12615,7 +12603,7 @@
       </c>
     </row>
     <row r="15" ht="17.25" customHeight="1" spans="1:6">
-      <c r="A15" s="70" t="s">
+      <c r="A15" s="67" t="s">
         <v>155</v>
       </c>
       <c r="B15" s="15"/>
@@ -12625,7 +12613,7 @@
       <c r="F15" s="25"/>
     </row>
     <row r="16" ht="17.25" customHeight="1" spans="1:12">
-      <c r="A16" s="70" t="s">
+      <c r="A16" s="67" t="s">
         <v>227</v>
       </c>
       <c r="B16" s="15">
@@ -12642,7 +12630,7 @@
       </c>
     </row>
     <row r="17" ht="15.95" customHeight="1" spans="1:6">
-      <c r="A17" s="70" t="s">
+      <c r="A17" s="67" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="15">
@@ -12656,7 +12644,7 @@
       </c>
     </row>
     <row r="18" ht="15.5" spans="1:12">
-      <c r="A18" s="70" t="s">
+      <c r="A18" s="67" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="15">
@@ -12675,7 +12663,7 @@
       </c>
     </row>
     <row r="19" ht="15.5" spans="1:6">
-      <c r="A19" s="70"/>
+      <c r="A19" s="67"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
@@ -12683,7 +12671,7 @@
       <c r="F19" s="13"/>
     </row>
     <row r="20" ht="15.95" customHeight="1" spans="1:6">
-      <c r="A20" s="68"/>
+      <c r="A20" s="65"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -12691,7 +12679,7 @@
       <c r="F20" s="15"/>
     </row>
     <row r="21" ht="15.95" customHeight="1" spans="1:6">
-      <c r="A21" s="70" t="s">
+      <c r="A21" s="67" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="15"/>
@@ -12703,7 +12691,7 @@
       <c r="F21" s="15"/>
     </row>
     <row r="22" ht="16.5" customHeight="1" spans="1:6">
-      <c r="A22" s="71" t="s">
+      <c r="A22" s="68" t="s">
         <v>250</v>
       </c>
       <c r="B22" s="15">
@@ -12721,17 +12709,17 @@
       </c>
     </row>
     <row r="23" ht="15.5" spans="1:6">
-      <c r="A23" s="71" t="s">
+      <c r="A23" s="68" t="s">
         <v>251</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
-      <c r="F23" s="65"/>
+      <c r="F23" s="63"/>
     </row>
     <row r="24" ht="15.5" spans="1:6">
-      <c r="A24" s="71" t="s">
+      <c r="A24" s="68" t="s">
         <v>252</v>
       </c>
       <c r="B24" s="15">
@@ -12745,7 +12733,7 @@
       <c r="F24" s="15"/>
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:6">
-      <c r="A25" s="71" t="s">
+      <c r="A25" s="68" t="s">
         <v>253</v>
       </c>
       <c r="B25" s="15"/>
@@ -12754,7 +12742,7 @@
       <c r="F25" s="26"/>
     </row>
     <row r="26" ht="15.5" spans="1:14">
-      <c r="A26" s="68" t="s">
+      <c r="A26" s="65" t="s">
         <v>123</v>
       </c>
       <c r="B26" s="15"/>
@@ -12772,7 +12760,7 @@
       </c>
     </row>
     <row r="27" ht="15.5" spans="1:14">
-      <c r="A27" s="68" t="s">
+      <c r="A27" s="65" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="15"/>
@@ -12796,7 +12784,7 @@
       <c r="E28" s="26"/>
     </row>
     <row r="29" ht="15.95" customHeight="1" spans="1:14">
-      <c r="A29" s="68" t="s">
+      <c r="A29" s="65" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="15">
@@ -12813,7 +12801,7 @@
       </c>
     </row>
     <row r="30" ht="15.5" spans="1:6">
-      <c r="A30" s="68" t="s">
+      <c r="A30" s="65" t="s">
         <v>124</v>
       </c>
       <c r="B30" s="15"/>
@@ -12825,7 +12813,7 @@
       <c r="F30" s="15"/>
     </row>
     <row r="31" ht="16.5" customHeight="1" spans="1:6">
-      <c r="A31" s="68" t="s">
+      <c r="A31" s="65" t="s">
         <v>162</v>
       </c>
       <c r="B31" s="15"/>
@@ -12839,7 +12827,7 @@
       </c>
     </row>
     <row r="32" ht="15.5" hidden="1" spans="1:6">
-      <c r="A32" s="72" t="s">
+      <c r="A32" s="69" t="s">
         <v>127</v>
       </c>
       <c r="B32" s="15">
@@ -12851,7 +12839,7 @@
       <c r="F32" s="13"/>
     </row>
     <row r="33" ht="15.5" spans="1:6">
-      <c r="A33" s="68"/>
+      <c r="A33" s="65"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="15"/>
@@ -13175,7 +13163,7 @@
         <v>119</v>
       </c>
       <c r="B17" s="14"/>
-      <c r="C17" s="64"/>
+      <c r="C17" s="62"/>
       <c r="D17" s="15">
         <v>0.642361111111112</v>
       </c>
@@ -13186,7 +13174,7 @@
       </c>
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
-      <c r="D18" s="61"/>
+      <c r="D18" s="25"/>
     </row>
     <row r="19" ht="15.5" spans="1:4">
       <c r="A19" s="28" t="s">
@@ -13208,7 +13196,7 @@
         <v>270</v>
       </c>
       <c r="B21" s="28"/>
-      <c r="C21" s="65"/>
+      <c r="C21" s="63"/>
       <c r="D21" s="15"/>
     </row>
     <row r="22" ht="15.5" spans="1:4">
@@ -13216,7 +13204,7 @@
         <v>29</v>
       </c>
       <c r="B22" s="28"/>
-      <c r="C22" s="66">
+      <c r="C22" s="64">
         <v>0.753472222222222</v>
       </c>
       <c r="D22" s="15">
@@ -13230,7 +13218,7 @@
       <c r="B23" s="28">
         <v>0.802083333333333</v>
       </c>
-      <c r="C23" s="63"/>
+      <c r="C23" s="62"/>
       <c r="D23" s="15"/>
     </row>
     <row r="24" ht="15.5" spans="1:4">
@@ -13238,7 +13226,7 @@
         <v>230</v>
       </c>
       <c r="B24" s="28"/>
-      <c r="C24" s="65"/>
+      <c r="C24" s="63"/>
       <c r="D24" s="15"/>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:4">
@@ -13248,7 +13236,7 @@
       <c r="B25" s="28">
         <v>0.885416666666667</v>
       </c>
-      <c r="C25" s="67">
+      <c r="C25" s="64">
         <v>0.878472222222222</v>
       </c>
       <c r="D25" s="15">
@@ -13464,7 +13452,7 @@
         <v>0.364583333333333</v>
       </c>
       <c r="D11" s="15"/>
-      <c r="E11" s="63"/>
+      <c r="E11" s="62"/>
       <c r="F11" s="15">
         <v>0.371527777777778</v>
       </c>
@@ -13480,7 +13468,7 @@
         <v>0.40625</v>
       </c>
       <c r="D12" s="13"/>
-      <c r="E12" s="63"/>
+      <c r="E12" s="62"/>
       <c r="F12" s="15"/>
     </row>
     <row r="13" ht="15.5" spans="1:6">
@@ -13494,7 +13482,7 @@
         <v>0.447916666666667</v>
       </c>
       <c r="D13" s="13"/>
-      <c r="E13" s="63"/>
+      <c r="E13" s="62"/>
       <c r="F13" s="15"/>
     </row>
     <row r="14" ht="15.5" spans="1:6">
@@ -13504,7 +13492,7 @@
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="13"/>
-      <c r="E14" s="63"/>
+      <c r="E14" s="62"/>
       <c r="F14" s="15"/>
     </row>
     <row r="15" ht="15.5" spans="1:6">
@@ -13514,7 +13502,7 @@
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="13"/>
-      <c r="E15" s="63"/>
+      <c r="E15" s="62"/>
       <c r="F15" s="15">
         <v>0.538194444444444</v>
       </c>
